--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_B</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11913,237 +11913,237 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11913,237 +11913,237 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
